--- a/База данных.xlsx
+++ b/База данных.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
   <si>
     <t>ОПС</t>
   </si>
@@ -27,6 +27,15 @@
     <t>Москва</t>
   </si>
   <si>
+    <t>108bit-автоматика</t>
+  </si>
+  <si>
+    <t>Пусконаладка опс, апс, соуэ, скуд, сот, сотс</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/puskonaladka_ops_aps_soue_skud_sot_sots_1752028434</t>
+  </si>
+  <si>
     <t>VIDGIT</t>
   </si>
   <si>
@@ -36,13 +45,343 @@
     <t>https://www.avito.ru//moskva/predlozheniya_uslug/videonablyudenie_ops_skud_montazh_1323724043</t>
   </si>
   <si>
-    <t>108bit-автоматика</t>
-  </si>
-  <si>
-    <t>Пусконаладка опс, апс, соуэ, скуд, сот, сотс</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru//moskva/predlozheniya_uslug/puskonaladka_ops_aps_soue_skud_sot_sots_1752028434</t>
+    <t>ГК"Задачибезопасность"</t>
+  </si>
+  <si>
+    <t>Пожарная сигнализация "под ключ" за 1 день***</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/pozharnaya_signalizatsiya_pod_klyuch_za_1_den_1568750022</t>
+  </si>
+  <si>
+    <t>Игорь</t>
+  </si>
+  <si>
+    <t>Пусконаладка опс, Скуд, осо, Видеонаблюдение</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/puskonaladka_ops_skud_oso_videonablyudenie_2094305636</t>
+  </si>
+  <si>
+    <t>Руслан</t>
+  </si>
+  <si>
+    <t>Видеонаблюдение, скуд, опс, оповещение</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/videonablyudenie_skud_ops_opoveschenie_2105755420</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Установка, монтаж видеонаблюдения, скс, опс, скуд</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/ustanovka_montazh_videonablyudeniya_sks_ops_skud_1829038575</t>
+  </si>
+  <si>
+    <t>Всёнапродажу</t>
+  </si>
+  <si>
+    <t>Установка опс и видеонаблюдения</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/ustanovka_ops_i_videonablyudeniya_1385110521</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>Видеонаблюдение, скуд, опс</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/videonablyudenie_skud_ops_1420846192</t>
+  </si>
+  <si>
+    <t>частноелицо</t>
+  </si>
+  <si>
+    <t>Видеонаблюдение домофон опс скуд</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/videonablyudenie_domofon_ops_skud_1517562115</t>
+  </si>
+  <si>
+    <t>Егор</t>
+  </si>
+  <si>
+    <t>Автоматизация, КИП и Автоматика, асу тп, опс</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/avtomatizatsiya_kip_i_avtomatika_asu_tp_ops_2153451096</t>
+  </si>
+  <si>
+    <t>VladikPugaev</t>
+  </si>
+  <si>
+    <t>Апс скс эом опс сс Монтаж и пусконаладочные работы</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/aps_sks_eom_ops_ss_montazh_i_puskonaladochnye_raboty_2158991038</t>
+  </si>
+  <si>
+    <t>МирВидео</t>
+  </si>
+  <si>
+    <t>Видеонаблюдение, домофония,скуд,опс</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/videonablyudenie_domofoniyaskudops_1511232912</t>
+  </si>
+  <si>
+    <t>Установка видеонаблюдения, апс,скуд, опс, скс</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/ustanovka_videonablyudeniya_apsskud_ops_sks_2147148957</t>
+  </si>
+  <si>
+    <t>СЛАБОТОЧНЫЕСЕТИ</t>
+  </si>
+  <si>
+    <t>Монтаж слаботочных систем</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/montazh_slabotochnyh_sistem_2129968348</t>
+  </si>
+  <si>
+    <t>Монтаж апс, соуэ, скс, скуд, ос</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/montazh_aps_soue_sks_skud_os_1800228319</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Разработка раздела пос</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/razrabotka_razdela_pos_1987302220</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Инженер монтажник слаботочных систем</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/inzhener_montazhnik_slabotochnyh_sistem_1335444676</t>
+  </si>
+  <si>
+    <t>Григорий</t>
+  </si>
+  <si>
+    <t>Специалист слаботочник</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/spetsialist_slabotochnik_186956342</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Ордер оати под ключ в Москве</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/order_oati_pod_klyuch_v_moskve_2137881240</t>
+  </si>
+  <si>
+    <t>Дамир</t>
+  </si>
+  <si>
+    <t>Бригада слаботочников и электриков</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/brigada_slabotochnikov_i_elektrikov_1866216390</t>
+  </si>
+  <si>
+    <t>Татьяна</t>
+  </si>
+  <si>
+    <t>Составление смет</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/sostavlenie_smet_2115217569</t>
+  </si>
+  <si>
+    <t>Установка систем видеонаблюдения, домофонов, видео</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/ustanovka_sistem_videonablyudeniya_domofonov_video_1035212402</t>
+  </si>
+  <si>
+    <t>АлгаСервис</t>
+  </si>
+  <si>
+    <t>Бригада электромонтажников: слаботочка, электрика</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/brigada_elektromontazhnikov_slabotochka_elektrika_1212756701</t>
+  </si>
+  <si>
+    <t>Вадим</t>
+  </si>
+  <si>
+    <t>Проекты овик, вк, эом, ар, кр, другие</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/proekty_ovik_vk_eom_ar_kr_drugie_586096578</t>
+  </si>
+  <si>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t>Обслуживание пожарной сигнализации</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/obsluzhivanie_pozharnoy_signalizatsii_2157315963</t>
+  </si>
+  <si>
+    <t>Инженер пто на удаленке</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/inzhener_pto_na_udalenke_1618864938</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>Бригада монтажников слаботочников</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/brigada_montazhnikov_slabotochnikov_1147324627</t>
+  </si>
+  <si>
+    <t>Программирование, обслуживание Болид (Орион), Gate</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/programmirovanie_obsluzhivanie_bolid_orion_gate_811261784</t>
+  </si>
+  <si>
+    <t>Монтажник слаботочных систем (Видеонаблюдение)</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/montazhnik_slabotochnyh_sistem_videonablyudenie_709722970</t>
+  </si>
+  <si>
+    <t>Равкат</t>
+  </si>
+  <si>
+    <t>Монтаж апс,соуэ,скуд, скс, ос, видео</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/montazh_apssoueskud_sks_os_video_867945524</t>
+  </si>
+  <si>
+    <t>Artem</t>
+  </si>
+  <si>
+    <t>Проектировщик наружных сетей</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/proektirovschik_naruzhnyh_setey_2079678350</t>
+  </si>
+  <si>
+    <t>Консультации, консалтинг, тех-системы безопасности</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/konsultatsii_konsalting_teh-sistemy_bezopasnosti_2082142420</t>
+  </si>
+  <si>
+    <t>VictorS</t>
+  </si>
+  <si>
+    <t>Разрешение на строит.,зос,агр,самострой,пзз</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/razreshenie_na_stroit.zosagrsamostroypzz_1054921240</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>Сметчик. Составление смет, кс-2,3. Услуги сметчика</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/smetchik._sostavlenie_smet_ks-23._uslugi_smetchika_991394548</t>
+  </si>
+  <si>
+    <t>Пользователь</t>
+  </si>
+  <si>
+    <t>Видеонаблюдение,Умный дом, скуд,охранные системы</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/videonablyudenieumnyy_dom_skudohrannye_sistemy_1783087123</t>
+  </si>
+  <si>
+    <t>Антон</t>
+  </si>
+  <si>
+    <t>Установка охранно-пожарной сигнализации</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/ustanovka_ohranno-pozharnoy_signalizatsii_2005174043</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Разработка пос, под</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/razrabotka_pos_pod_1955445962</t>
+  </si>
+  <si>
+    <t>Разрешение на строительство зос, пзз, агр дги, гзк</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/razreshenie_na_stroitelstvo_zos_pzz_agr_dgi_gzk_2113062216</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Монтаж пожарной сигнализации</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/montazh_pozharnoy_signalizatsii_1774895702</t>
+  </si>
+  <si>
+    <t>Наталья</t>
+  </si>
+  <si>
+    <t>Сметчик - сметы в кротчайшие сроки без выходных</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/smetchik_-_smety_v_krotchayshie_sroki_bez_vyhodnyh_962088472</t>
+  </si>
+  <si>
+    <t>Ордер оати Разрешение на строительство в Москве</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/order_oati_razreshenie_na_stroitelstvo_v_moskve_2067232482</t>
+  </si>
+  <si>
+    <t>Ордер оати открытие + полное сопровождение</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/order_oati_otkrytie_polnoe_soprovozhdenie_2048490824</t>
+  </si>
+  <si>
+    <t>Кирилл</t>
+  </si>
+  <si>
+    <t>Разработка пос</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru//moskva/predlozheniya_uslug/razrabotka_pos_2167169779</t>
   </si>
 </sst>
 </file>
@@ -400,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <v>89060907770</v>
@@ -415,15 +754,15 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>89256835646</v>
@@ -435,145 +774,842 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>89168748487</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>89035951441</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>89037408768</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>89162168038</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>89999011255</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>89017483382</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>89539459487</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>89235847096</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1">
+        <v>89603388727</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1">
+        <v>89035309090</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1">
+        <v>89967254545</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1">
+        <v>89959050635</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>89268215256</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1">
+        <v>89777057647</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1">
+        <v>89256847479</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1">
+        <v>89150020320</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1">
+        <v>89828161239</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1">
+        <v>89779013488</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8916286557</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1">
+        <v>89852913467</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8999897699</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1">
+        <v>89255009055</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1">
+        <v>89150040580</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1">
+        <v>89267812839</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1">
+        <v>89104846677</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1">
+        <v>89164346095</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="1">
+        <v>89265677095</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="1">
+        <v>89256091147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="1">
+        <v>89776089395</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1">
+        <v>89852517175</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="1">
+        <v>89262061496</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8916987253</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="1">
+        <v>89197273030</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8925467156</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8965242436</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="1">
+        <v>89204635321</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8903216967</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1">
+        <v>89282264687</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="1">
+        <v>89124516479</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="1">
+        <v>89127509639</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8966424422</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
